--- a/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
+++ b/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,185 +452,585 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>273</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>570</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>260</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>173</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>830</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45460</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45467</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>722</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45488</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45523</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>582</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45530</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45537</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45544</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45635</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B74" t="n">
         <v>304</v>
       </c>
     </row>
@@ -645,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,73 +1067,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>573</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>753</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>433</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>830</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>804</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>644</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45627</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>304</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
+++ b/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1062,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1231,6 +1232,1181 @@
       </c>
       <c r="B22" t="n">
         <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-95.47299678968157</v>
+      </c>
+      <c r="D2" t="n">
+        <v>309.7796319917326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>104</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-105.9340868629948</v>
+      </c>
+      <c r="D3" t="n">
+        <v>304.5566427850823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>105</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-99.29509449727175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>298.0605601928618</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-94.30919062920204</v>
+      </c>
+      <c r="D5" t="n">
+        <v>301.8528278711614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-102.8527822472914</v>
+      </c>
+      <c r="D6" t="n">
+        <v>316.2915951844864</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>108</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-104.288529926833</v>
+      </c>
+      <c r="D7" t="n">
+        <v>309.0009816623187</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>109</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-108.667129703273</v>
+      </c>
+      <c r="D8" t="n">
+        <v>306.0936592710922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>110</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-99.95933657439707</v>
+      </c>
+      <c r="D9" t="n">
+        <v>302.3043418822893</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>111</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-88.72576413492924</v>
+      </c>
+      <c r="D10" t="n">
+        <v>314.6045896457301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>112</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-81.90237287367142</v>
+      </c>
+      <c r="D11" t="n">
+        <v>343.9281914118201</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>113</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-86.86131405519254</v>
+      </c>
+      <c r="D12" t="n">
+        <v>312.1854474042227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>114</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-74.41254932613788</v>
+      </c>
+      <c r="D13" t="n">
+        <v>332.6973055828349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>115</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-94.24895686435001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>315.949312779964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>116</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-90.11836482171468</v>
+      </c>
+      <c r="D15" t="n">
+        <v>318.5117015534476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>117</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-86.65166580006385</v>
+      </c>
+      <c r="D16" t="n">
+        <v>327.0132404319524</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>118</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-91.17250495702025</v>
+      </c>
+      <c r="D17" t="n">
+        <v>321.2416053927175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>119</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-87.03100602947009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>321.5509265748955</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>120</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-76.14841601779163</v>
+      </c>
+      <c r="D19" t="n">
+        <v>323.276933095053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>121</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-69.07865902442285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>330.5834663425001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>122</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-91.9621949379585</v>
+      </c>
+      <c r="D21" t="n">
+        <v>317.9161082825771</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>123</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-80.95406825763486</v>
+      </c>
+      <c r="D22" t="n">
+        <v>341.6913028132257</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>124</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-75.27440768150628</v>
+      </c>
+      <c r="D23" t="n">
+        <v>313.2496168946919</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-74.01312453192001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>351.7355778913904</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>126</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-89.61674258015</v>
+      </c>
+      <c r="D25" t="n">
+        <v>337.8617524680021</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>127</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-73.25558099769444</v>
+      </c>
+      <c r="D26" t="n">
+        <v>332.9975019058663</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>128</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-73.46005132914149</v>
+      </c>
+      <c r="D27" t="n">
+        <v>329.5841582168534</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>129</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-82.45088305137365</v>
+      </c>
+      <c r="D28" t="n">
+        <v>329.6668903576673</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>130</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-90.69553743978719</v>
+      </c>
+      <c r="D29" t="n">
+        <v>334.2450336236761</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>131</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-73.3474692016102</v>
+      </c>
+      <c r="D30" t="n">
+        <v>322.7908782732153</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>132</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-61.98082539341808</v>
+      </c>
+      <c r="D31" t="n">
+        <v>331.546247335831</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>133</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-85.95505517177291</v>
+      </c>
+      <c r="D32" t="n">
+        <v>337.2980016116566</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>134</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-72.29811229734065</v>
+      </c>
+      <c r="D33" t="n">
+        <v>351.4646538318501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>135</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-69.67840167889179</v>
+      </c>
+      <c r="D34" t="n">
+        <v>344.6469700755173</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>135</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-72.36923994044118</v>
+      </c>
+      <c r="D35" t="n">
+        <v>332.5244963598668</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>136</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-57.86361279106836</v>
+      </c>
+      <c r="D36" t="n">
+        <v>343.3165771141298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>137</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-49.04903143556663</v>
+      </c>
+      <c r="D37" t="n">
+        <v>343.9000805698813</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>138</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-76.73872142865524</v>
+      </c>
+      <c r="D38" t="n">
+        <v>349.3168211603813</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>139</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-65.48075855508105</v>
+      </c>
+      <c r="D39" t="n">
+        <v>319.7869873284597</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>140</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-67.99601879275194</v>
+      </c>
+      <c r="D40" t="n">
+        <v>335.8438037280418</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>141</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-70.09646841462038</v>
+      </c>
+      <c r="D41" t="n">
+        <v>347.9236716611505</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>142</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-61.47183950206269</v>
+      </c>
+      <c r="D42" t="n">
+        <v>347.5501376426461</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>143</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-66.31558910134727</v>
+      </c>
+      <c r="D43" t="n">
+        <v>352.1849718809729</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>144</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-62.05878628176714</v>
+      </c>
+      <c r="D44" t="n">
+        <v>354.8832491138523</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>145</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-54.80146935182574</v>
+      </c>
+      <c r="D45" t="n">
+        <v>341.9798697889512</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>146</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-67.9299379963913</v>
+      </c>
+      <c r="D46" t="n">
+        <v>342.0233249384747</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>147</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-64.95840108279239</v>
+      </c>
+      <c r="D47" t="n">
+        <v>349.1817132473888</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>148</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-57.83176224590582</v>
+      </c>
+      <c r="D48" t="n">
+        <v>351.2793662762562</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>149</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-42.4448734060574</v>
+      </c>
+      <c r="D49" t="n">
+        <v>361.0191565329225</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>150</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-51.69527084233162</v>
+      </c>
+      <c r="D50" t="n">
+        <v>366.5023703706864</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>151</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-43.8771999948304</v>
+      </c>
+      <c r="D51" t="n">
+        <v>357.4712857900308</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>154</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-56.26878415529787</v>
+      </c>
+      <c r="D52" t="n">
+        <v>361.3929193838338</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>155</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-49.27273541915288</v>
+      </c>
+      <c r="D53" t="n">
+        <v>355.4080611505872</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>156</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-52.97076607028016</v>
+      </c>
+      <c r="D54" t="n">
+        <v>359.3476432724116</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>157</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-56.65488371648296</v>
+      </c>
+      <c r="D55" t="n">
+        <v>345.1358278979941</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>158</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-52.21465311595235</v>
+      </c>
+      <c r="D56" t="n">
+        <v>356.9877718061797</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>159</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-49.50461914972409</v>
+      </c>
+      <c r="D57" t="n">
+        <v>365.61261203396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>161</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-43.32451646804225</v>
+      </c>
+      <c r="D58" t="n">
+        <v>352.4190024979924</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>162</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-44.31257973520594</v>
+      </c>
+      <c r="D59" t="n">
+        <v>373.2076899066022</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>163</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-61.26586197776274</v>
+      </c>
+      <c r="D60" t="n">
+        <v>369.6859949166515</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>166</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-37.84707604453478</v>
+      </c>
+      <c r="D61" t="n">
+        <v>383.6112348371003</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>167</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-22.33035826944227</v>
+      </c>
+      <c r="D62" t="n">
+        <v>368.5503791648592</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>177</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-30.64546399363025</v>
+      </c>
+      <c r="D63" t="n">
+        <v>371.6937439456383</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>178</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-33.75795895894797</v>
+      </c>
+      <c r="D64" t="n">
+        <v>386.5957151286267</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>179</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-33.10822463700374</v>
+      </c>
+      <c r="D65" t="n">
+        <v>394.4044280432256</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>180</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-22.30166073738711</v>
+      </c>
+      <c r="D66" t="n">
+        <v>374.8819242801237</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>180</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-29.00170988221141</v>
+      </c>
+      <c r="D67" t="n">
+        <v>393.3916781114776</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>181</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-28.5902675315464</v>
+      </c>
+      <c r="D68" t="n">
+        <v>384.207506201367</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>184</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-16.53623353456505</v>
+      </c>
+      <c r="D69" t="n">
+        <v>376.0139122614681</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>186</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-18.22374318645742</v>
+      </c>
+      <c r="D70" t="n">
+        <v>383.5050146746414</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>187</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10.02023330853343</v>
+      </c>
+      <c r="D71" t="n">
+        <v>390.5999377905579</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>188</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-10.59790395567223</v>
+      </c>
+      <c r="D72" t="n">
+        <v>387.8092264818146</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>189</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-18.6337406127917</v>
+      </c>
+      <c r="D73" t="n">
+        <v>375.9964168851479</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>202</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9.151966084151855</v>
+      </c>
+      <c r="D74" t="n">
+        <v>401.650875455896</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>203</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-5.781378773519132</v>
+      </c>
+      <c r="D75" t="n">
+        <v>407.709348289282</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>204</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-7.376282602451892</v>
+      </c>
+      <c r="D76" t="n">
+        <v>417.6074075649153</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>205</v>
+      </c>
+      <c r="C77" t="n">
+        <v>12.64273688442991</v>
+      </c>
+      <c r="D77" t="n">
+        <v>397.5231154129514</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>206</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-4.989390785671088</v>
+      </c>
+      <c r="D78" t="n">
+        <v>412.0624766667578</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>207</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.644752465761377</v>
+      </c>
+      <c r="D79" t="n">
+        <v>405.7621240480015</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>208</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-4.013108285107387</v>
+      </c>
+      <c r="D80" t="n">
+        <v>419.3202451813526</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>209</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15.05619014193309</v>
+      </c>
+      <c r="D81" t="n">
+        <v>399.445539642326</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>210</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8.783799914522987</v>
+      </c>
+      <c r="D82" t="n">
+        <v>418.5601552716823</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
+++ b/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,16 +1264,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1282,12 +1272,6 @@
       <c r="B2" t="n">
         <v>103</v>
       </c>
-      <c r="C2" t="n">
-        <v>-95.47299678968157</v>
-      </c>
-      <c r="D2" t="n">
-        <v>309.7796319917326</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1296,12 +1280,6 @@
       <c r="B3" t="n">
         <v>104</v>
       </c>
-      <c r="C3" t="n">
-        <v>-105.9340868629948</v>
-      </c>
-      <c r="D3" t="n">
-        <v>304.5566427850823</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1310,12 +1288,6 @@
       <c r="B4" t="n">
         <v>105</v>
       </c>
-      <c r="C4" t="n">
-        <v>-99.29509449727175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>298.0605601928618</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1324,12 +1296,6 @@
       <c r="B5" t="n">
         <v>106</v>
       </c>
-      <c r="C5" t="n">
-        <v>-94.30919062920204</v>
-      </c>
-      <c r="D5" t="n">
-        <v>301.8528278711614</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1338,12 +1304,6 @@
       <c r="B6" t="n">
         <v>107</v>
       </c>
-      <c r="C6" t="n">
-        <v>-102.8527822472914</v>
-      </c>
-      <c r="D6" t="n">
-        <v>316.2915951844864</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1352,12 +1312,6 @@
       <c r="B7" t="n">
         <v>108</v>
       </c>
-      <c r="C7" t="n">
-        <v>-104.288529926833</v>
-      </c>
-      <c r="D7" t="n">
-        <v>309.0009816623187</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1366,12 +1320,6 @@
       <c r="B8" t="n">
         <v>109</v>
       </c>
-      <c r="C8" t="n">
-        <v>-108.667129703273</v>
-      </c>
-      <c r="D8" t="n">
-        <v>306.0936592710922</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1380,12 +1328,6 @@
       <c r="B9" t="n">
         <v>110</v>
       </c>
-      <c r="C9" t="n">
-        <v>-99.95933657439707</v>
-      </c>
-      <c r="D9" t="n">
-        <v>302.3043418822893</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1394,12 +1336,6 @@
       <c r="B10" t="n">
         <v>111</v>
       </c>
-      <c r="C10" t="n">
-        <v>-88.72576413492924</v>
-      </c>
-      <c r="D10" t="n">
-        <v>314.6045896457301</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1408,12 +1344,6 @@
       <c r="B11" t="n">
         <v>112</v>
       </c>
-      <c r="C11" t="n">
-        <v>-81.90237287367142</v>
-      </c>
-      <c r="D11" t="n">
-        <v>343.9281914118201</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1422,12 +1352,6 @@
       <c r="B12" t="n">
         <v>113</v>
       </c>
-      <c r="C12" t="n">
-        <v>-86.86131405519254</v>
-      </c>
-      <c r="D12" t="n">
-        <v>312.1854474042227</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1436,12 +1360,6 @@
       <c r="B13" t="n">
         <v>114</v>
       </c>
-      <c r="C13" t="n">
-        <v>-74.41254932613788</v>
-      </c>
-      <c r="D13" t="n">
-        <v>332.6973055828349</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1450,12 +1368,6 @@
       <c r="B14" t="n">
         <v>115</v>
       </c>
-      <c r="C14" t="n">
-        <v>-94.24895686435001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>315.949312779964</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1464,12 +1376,6 @@
       <c r="B15" t="n">
         <v>116</v>
       </c>
-      <c r="C15" t="n">
-        <v>-90.11836482171468</v>
-      </c>
-      <c r="D15" t="n">
-        <v>318.5117015534476</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1478,12 +1384,6 @@
       <c r="B16" t="n">
         <v>117</v>
       </c>
-      <c r="C16" t="n">
-        <v>-86.65166580006385</v>
-      </c>
-      <c r="D16" t="n">
-        <v>327.0132404319524</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1492,12 +1392,6 @@
       <c r="B17" t="n">
         <v>118</v>
       </c>
-      <c r="C17" t="n">
-        <v>-91.17250495702025</v>
-      </c>
-      <c r="D17" t="n">
-        <v>321.2416053927175</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1506,12 +1400,6 @@
       <c r="B18" t="n">
         <v>119</v>
       </c>
-      <c r="C18" t="n">
-        <v>-87.03100602947009</v>
-      </c>
-      <c r="D18" t="n">
-        <v>321.5509265748955</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1520,12 +1408,6 @@
       <c r="B19" t="n">
         <v>120</v>
       </c>
-      <c r="C19" t="n">
-        <v>-76.14841601779163</v>
-      </c>
-      <c r="D19" t="n">
-        <v>323.276933095053</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1534,12 +1416,6 @@
       <c r="B20" t="n">
         <v>121</v>
       </c>
-      <c r="C20" t="n">
-        <v>-69.07865902442285</v>
-      </c>
-      <c r="D20" t="n">
-        <v>330.5834663425001</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1548,12 +1424,6 @@
       <c r="B21" t="n">
         <v>122</v>
       </c>
-      <c r="C21" t="n">
-        <v>-91.9621949379585</v>
-      </c>
-      <c r="D21" t="n">
-        <v>317.9161082825771</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1562,12 +1432,6 @@
       <c r="B22" t="n">
         <v>123</v>
       </c>
-      <c r="C22" t="n">
-        <v>-80.95406825763486</v>
-      </c>
-      <c r="D22" t="n">
-        <v>341.6913028132257</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1576,12 +1440,6 @@
       <c r="B23" t="n">
         <v>124</v>
       </c>
-      <c r="C23" t="n">
-        <v>-75.27440768150628</v>
-      </c>
-      <c r="D23" t="n">
-        <v>313.2496168946919</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1590,12 +1448,6 @@
       <c r="B24" t="n">
         <v>125</v>
       </c>
-      <c r="C24" t="n">
-        <v>-74.01312453192001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>351.7355778913904</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1604,12 +1456,6 @@
       <c r="B25" t="n">
         <v>126</v>
       </c>
-      <c r="C25" t="n">
-        <v>-89.61674258015</v>
-      </c>
-      <c r="D25" t="n">
-        <v>337.8617524680021</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1618,12 +1464,6 @@
       <c r="B26" t="n">
         <v>127</v>
       </c>
-      <c r="C26" t="n">
-        <v>-73.25558099769444</v>
-      </c>
-      <c r="D26" t="n">
-        <v>332.9975019058663</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1632,12 +1472,6 @@
       <c r="B27" t="n">
         <v>128</v>
       </c>
-      <c r="C27" t="n">
-        <v>-73.46005132914149</v>
-      </c>
-      <c r="D27" t="n">
-        <v>329.5841582168534</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1646,12 +1480,6 @@
       <c r="B28" t="n">
         <v>129</v>
       </c>
-      <c r="C28" t="n">
-        <v>-82.45088305137365</v>
-      </c>
-      <c r="D28" t="n">
-        <v>329.6668903576673</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1660,12 +1488,6 @@
       <c r="B29" t="n">
         <v>130</v>
       </c>
-      <c r="C29" t="n">
-        <v>-90.69553743978719</v>
-      </c>
-      <c r="D29" t="n">
-        <v>334.2450336236761</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1674,12 +1496,6 @@
       <c r="B30" t="n">
         <v>131</v>
       </c>
-      <c r="C30" t="n">
-        <v>-73.3474692016102</v>
-      </c>
-      <c r="D30" t="n">
-        <v>322.7908782732153</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1688,12 +1504,6 @@
       <c r="B31" t="n">
         <v>132</v>
       </c>
-      <c r="C31" t="n">
-        <v>-61.98082539341808</v>
-      </c>
-      <c r="D31" t="n">
-        <v>331.546247335831</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1702,12 +1512,6 @@
       <c r="B32" t="n">
         <v>133</v>
       </c>
-      <c r="C32" t="n">
-        <v>-85.95505517177291</v>
-      </c>
-      <c r="D32" t="n">
-        <v>337.2980016116566</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1716,12 +1520,6 @@
       <c r="B33" t="n">
         <v>134</v>
       </c>
-      <c r="C33" t="n">
-        <v>-72.29811229734065</v>
-      </c>
-      <c r="D33" t="n">
-        <v>351.4646538318501</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1730,12 +1528,6 @@
       <c r="B34" t="n">
         <v>135</v>
       </c>
-      <c r="C34" t="n">
-        <v>-69.67840167889179</v>
-      </c>
-      <c r="D34" t="n">
-        <v>344.6469700755173</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1744,12 +1536,6 @@
       <c r="B35" t="n">
         <v>135</v>
       </c>
-      <c r="C35" t="n">
-        <v>-72.36923994044118</v>
-      </c>
-      <c r="D35" t="n">
-        <v>332.5244963598668</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1758,12 +1544,6 @@
       <c r="B36" t="n">
         <v>136</v>
       </c>
-      <c r="C36" t="n">
-        <v>-57.86361279106836</v>
-      </c>
-      <c r="D36" t="n">
-        <v>343.3165771141298</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1772,12 +1552,6 @@
       <c r="B37" t="n">
         <v>137</v>
       </c>
-      <c r="C37" t="n">
-        <v>-49.04903143556663</v>
-      </c>
-      <c r="D37" t="n">
-        <v>343.9000805698813</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1786,12 +1560,6 @@
       <c r="B38" t="n">
         <v>138</v>
       </c>
-      <c r="C38" t="n">
-        <v>-76.73872142865524</v>
-      </c>
-      <c r="D38" t="n">
-        <v>349.3168211603813</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1800,12 +1568,6 @@
       <c r="B39" t="n">
         <v>139</v>
       </c>
-      <c r="C39" t="n">
-        <v>-65.48075855508105</v>
-      </c>
-      <c r="D39" t="n">
-        <v>319.7869873284597</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1814,12 +1576,6 @@
       <c r="B40" t="n">
         <v>140</v>
       </c>
-      <c r="C40" t="n">
-        <v>-67.99601879275194</v>
-      </c>
-      <c r="D40" t="n">
-        <v>335.8438037280418</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1828,12 +1584,6 @@
       <c r="B41" t="n">
         <v>141</v>
       </c>
-      <c r="C41" t="n">
-        <v>-70.09646841462038</v>
-      </c>
-      <c r="D41" t="n">
-        <v>347.9236716611505</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1842,12 +1592,6 @@
       <c r="B42" t="n">
         <v>142</v>
       </c>
-      <c r="C42" t="n">
-        <v>-61.47183950206269</v>
-      </c>
-      <c r="D42" t="n">
-        <v>347.5501376426461</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1856,12 +1600,6 @@
       <c r="B43" t="n">
         <v>143</v>
       </c>
-      <c r="C43" t="n">
-        <v>-66.31558910134727</v>
-      </c>
-      <c r="D43" t="n">
-        <v>352.1849718809729</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1870,12 +1608,6 @@
       <c r="B44" t="n">
         <v>144</v>
       </c>
-      <c r="C44" t="n">
-        <v>-62.05878628176714</v>
-      </c>
-      <c r="D44" t="n">
-        <v>354.8832491138523</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1884,12 +1616,6 @@
       <c r="B45" t="n">
         <v>145</v>
       </c>
-      <c r="C45" t="n">
-        <v>-54.80146935182574</v>
-      </c>
-      <c r="D45" t="n">
-        <v>341.9798697889512</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1898,12 +1624,6 @@
       <c r="B46" t="n">
         <v>146</v>
       </c>
-      <c r="C46" t="n">
-        <v>-67.9299379963913</v>
-      </c>
-      <c r="D46" t="n">
-        <v>342.0233249384747</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1912,12 +1632,6 @@
       <c r="B47" t="n">
         <v>147</v>
       </c>
-      <c r="C47" t="n">
-        <v>-64.95840108279239</v>
-      </c>
-      <c r="D47" t="n">
-        <v>349.1817132473888</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1926,12 +1640,6 @@
       <c r="B48" t="n">
         <v>148</v>
       </c>
-      <c r="C48" t="n">
-        <v>-57.83176224590582</v>
-      </c>
-      <c r="D48" t="n">
-        <v>351.2793662762562</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1940,12 +1648,6 @@
       <c r="B49" t="n">
         <v>149</v>
       </c>
-      <c r="C49" t="n">
-        <v>-42.4448734060574</v>
-      </c>
-      <c r="D49" t="n">
-        <v>361.0191565329225</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1954,12 +1656,6 @@
       <c r="B50" t="n">
         <v>150</v>
       </c>
-      <c r="C50" t="n">
-        <v>-51.69527084233162</v>
-      </c>
-      <c r="D50" t="n">
-        <v>366.5023703706864</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1968,12 +1664,6 @@
       <c r="B51" t="n">
         <v>151</v>
       </c>
-      <c r="C51" t="n">
-        <v>-43.8771999948304</v>
-      </c>
-      <c r="D51" t="n">
-        <v>357.4712857900308</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1982,12 +1672,6 @@
       <c r="B52" t="n">
         <v>154</v>
       </c>
-      <c r="C52" t="n">
-        <v>-56.26878415529787</v>
-      </c>
-      <c r="D52" t="n">
-        <v>361.3929193838338</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1996,12 +1680,6 @@
       <c r="B53" t="n">
         <v>155</v>
       </c>
-      <c r="C53" t="n">
-        <v>-49.27273541915288</v>
-      </c>
-      <c r="D53" t="n">
-        <v>355.4080611505872</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2010,12 +1688,6 @@
       <c r="B54" t="n">
         <v>156</v>
       </c>
-      <c r="C54" t="n">
-        <v>-52.97076607028016</v>
-      </c>
-      <c r="D54" t="n">
-        <v>359.3476432724116</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2024,12 +1696,6 @@
       <c r="B55" t="n">
         <v>157</v>
       </c>
-      <c r="C55" t="n">
-        <v>-56.65488371648296</v>
-      </c>
-      <c r="D55" t="n">
-        <v>345.1358278979941</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2038,12 +1704,6 @@
       <c r="B56" t="n">
         <v>158</v>
       </c>
-      <c r="C56" t="n">
-        <v>-52.21465311595235</v>
-      </c>
-      <c r="D56" t="n">
-        <v>356.9877718061797</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2052,12 +1712,6 @@
       <c r="B57" t="n">
         <v>159</v>
       </c>
-      <c r="C57" t="n">
-        <v>-49.50461914972409</v>
-      </c>
-      <c r="D57" t="n">
-        <v>365.61261203396</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2066,12 +1720,6 @@
       <c r="B58" t="n">
         <v>161</v>
       </c>
-      <c r="C58" t="n">
-        <v>-43.32451646804225</v>
-      </c>
-      <c r="D58" t="n">
-        <v>352.4190024979924</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2080,12 +1728,6 @@
       <c r="B59" t="n">
         <v>162</v>
       </c>
-      <c r="C59" t="n">
-        <v>-44.31257973520594</v>
-      </c>
-      <c r="D59" t="n">
-        <v>373.2076899066022</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2094,12 +1736,6 @@
       <c r="B60" t="n">
         <v>163</v>
       </c>
-      <c r="C60" t="n">
-        <v>-61.26586197776274</v>
-      </c>
-      <c r="D60" t="n">
-        <v>369.6859949166515</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2108,12 +1744,6 @@
       <c r="B61" t="n">
         <v>166</v>
       </c>
-      <c r="C61" t="n">
-        <v>-37.84707604453478</v>
-      </c>
-      <c r="D61" t="n">
-        <v>383.6112348371003</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2122,12 +1752,6 @@
       <c r="B62" t="n">
         <v>167</v>
       </c>
-      <c r="C62" t="n">
-        <v>-22.33035826944227</v>
-      </c>
-      <c r="D62" t="n">
-        <v>368.5503791648592</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2136,12 +1760,6 @@
       <c r="B63" t="n">
         <v>177</v>
       </c>
-      <c r="C63" t="n">
-        <v>-30.64546399363025</v>
-      </c>
-      <c r="D63" t="n">
-        <v>371.6937439456383</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2150,12 +1768,6 @@
       <c r="B64" t="n">
         <v>178</v>
       </c>
-      <c r="C64" t="n">
-        <v>-33.75795895894797</v>
-      </c>
-      <c r="D64" t="n">
-        <v>386.5957151286267</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2164,12 +1776,6 @@
       <c r="B65" t="n">
         <v>179</v>
       </c>
-      <c r="C65" t="n">
-        <v>-33.10822463700374</v>
-      </c>
-      <c r="D65" t="n">
-        <v>394.4044280432256</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2178,12 +1784,6 @@
       <c r="B66" t="n">
         <v>180</v>
       </c>
-      <c r="C66" t="n">
-        <v>-22.30166073738711</v>
-      </c>
-      <c r="D66" t="n">
-        <v>374.8819242801237</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2192,12 +1792,6 @@
       <c r="B67" t="n">
         <v>180</v>
       </c>
-      <c r="C67" t="n">
-        <v>-29.00170988221141</v>
-      </c>
-      <c r="D67" t="n">
-        <v>393.3916781114776</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2206,12 +1800,6 @@
       <c r="B68" t="n">
         <v>181</v>
       </c>
-      <c r="C68" t="n">
-        <v>-28.5902675315464</v>
-      </c>
-      <c r="D68" t="n">
-        <v>384.207506201367</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2220,12 +1808,6 @@
       <c r="B69" t="n">
         <v>184</v>
       </c>
-      <c r="C69" t="n">
-        <v>-16.53623353456505</v>
-      </c>
-      <c r="D69" t="n">
-        <v>376.0139122614681</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2234,12 +1816,6 @@
       <c r="B70" t="n">
         <v>186</v>
       </c>
-      <c r="C70" t="n">
-        <v>-18.22374318645742</v>
-      </c>
-      <c r="D70" t="n">
-        <v>383.5050146746414</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2248,12 +1824,6 @@
       <c r="B71" t="n">
         <v>187</v>
       </c>
-      <c r="C71" t="n">
-        <v>10.02023330853343</v>
-      </c>
-      <c r="D71" t="n">
-        <v>390.5999377905579</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2262,12 +1832,6 @@
       <c r="B72" t="n">
         <v>188</v>
       </c>
-      <c r="C72" t="n">
-        <v>-10.59790395567223</v>
-      </c>
-      <c r="D72" t="n">
-        <v>387.8092264818146</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2276,12 +1840,6 @@
       <c r="B73" t="n">
         <v>189</v>
       </c>
-      <c r="C73" t="n">
-        <v>-18.6337406127917</v>
-      </c>
-      <c r="D73" t="n">
-        <v>375.9964168851479</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2290,12 +1848,6 @@
       <c r="B74" t="n">
         <v>202</v>
       </c>
-      <c r="C74" t="n">
-        <v>9.151966084151855</v>
-      </c>
-      <c r="D74" t="n">
-        <v>401.650875455896</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2304,12 +1856,6 @@
       <c r="B75" t="n">
         <v>203</v>
       </c>
-      <c r="C75" t="n">
-        <v>-5.781378773519132</v>
-      </c>
-      <c r="D75" t="n">
-        <v>407.709348289282</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2318,12 +1864,6 @@
       <c r="B76" t="n">
         <v>204</v>
       </c>
-      <c r="C76" t="n">
-        <v>-7.376282602451892</v>
-      </c>
-      <c r="D76" t="n">
-        <v>417.6074075649153</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2332,12 +1872,6 @@
       <c r="B77" t="n">
         <v>205</v>
       </c>
-      <c r="C77" t="n">
-        <v>12.64273688442991</v>
-      </c>
-      <c r="D77" t="n">
-        <v>397.5231154129514</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2346,12 +1880,6 @@
       <c r="B78" t="n">
         <v>206</v>
       </c>
-      <c r="C78" t="n">
-        <v>-4.989390785671088</v>
-      </c>
-      <c r="D78" t="n">
-        <v>412.0624766667578</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2360,12 +1888,6 @@
       <c r="B79" t="n">
         <v>207</v>
       </c>
-      <c r="C79" t="n">
-        <v>8.644752465761377</v>
-      </c>
-      <c r="D79" t="n">
-        <v>405.7621240480015</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2374,12 +1896,6 @@
       <c r="B80" t="n">
         <v>208</v>
       </c>
-      <c r="C80" t="n">
-        <v>-4.013108285107387</v>
-      </c>
-      <c r="D80" t="n">
-        <v>419.3202451813526</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2388,12 +1904,6 @@
       <c r="B81" t="n">
         <v>209</v>
       </c>
-      <c r="C81" t="n">
-        <v>15.05619014193309</v>
-      </c>
-      <c r="D81" t="n">
-        <v>399.445539642326</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2401,12 +1911,6 @@
       </c>
       <c r="B82" t="n">
         <v>210</v>
-      </c>
-      <c r="C82" t="n">
-        <v>8.783799914522987</v>
-      </c>
-      <c r="D82" t="n">
-        <v>418.5601552716823</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
+++ b/po_analysis_by_asin/B09WPTKDQY_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,22 @@
         <v>304</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1046,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1250,14 @@
         <v>304</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1245,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,7 +1294,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -1278,7 +1302,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1286,7 +1310,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1294,7 +1318,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1302,7 +1326,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -1310,7 +1334,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1318,7 +1342,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>109</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -1326,7 +1350,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1334,7 +1358,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1366,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1358,7 +1382,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -1366,7 +1390,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>115</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
@@ -1374,7 +1398,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>116</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16">
@@ -1382,7 +1406,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>117</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17">
@@ -1390,7 +1414,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -1398,7 +1422,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -1406,7 +1430,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1414,7 +1438,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1446,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
@@ -1430,7 +1454,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
@@ -1438,7 +1462,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
@@ -1446,7 +1470,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1454,7 +1478,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1462,7 +1486,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -1470,7 +1494,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1502,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -1486,7 +1510,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
@@ -1494,7 +1518,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1526,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -1510,7 +1534,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1518,7 +1542,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
@@ -1526,7 +1550,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
@@ -1534,7 +1558,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1566,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
@@ -1550,7 +1574,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>137</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -1558,7 +1582,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>138</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
@@ -1566,7 +1590,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
@@ -1574,7 +1598,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1606,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -1590,7 +1614,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -1598,7 +1622,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1606,7 +1630,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1614,7 +1638,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -1622,7 +1646,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>146</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
@@ -1630,7 +1654,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48">
@@ -1638,7 +1662,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
@@ -1646,7 +1670,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50">
@@ -1654,7 +1678,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
@@ -1662,7 +1686,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52">
@@ -1670,7 +1694,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53">
@@ -1678,7 +1702,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -1686,7 +1710,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1718,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
@@ -1702,7 +1726,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57">
@@ -1710,7 +1734,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58">
@@ -1718,7 +1742,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>161</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59">
@@ -1726,7 +1750,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60">
@@ -1734,7 +1758,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61">
@@ -1742,7 +1766,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>166</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62">
@@ -1750,7 +1774,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>167</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63">
@@ -1758,7 +1782,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>177</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64">
@@ -1766,7 +1790,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>178</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -1774,7 +1798,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>179</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
@@ -1782,7 +1806,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67">
@@ -1790,7 +1814,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68">
@@ -1798,7 +1822,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
@@ -1806,7 +1830,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70">
@@ -1814,7 +1838,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71">
@@ -1822,7 +1846,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
@@ -1830,7 +1854,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -1838,7 +1862,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>189</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
@@ -1846,71 +1870,87 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>208</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>210</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B84" t="n">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
